--- a/Excel Kerangka Pemikiran.xlsx
+++ b/Excel Kerangka Pemikiran.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mella\Documents\Skripsi Riski\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFD4D963-9CE7-4C5B-9AB3-E56398C2FF89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8797A201-814B-4FB0-A814-1A22A485364F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{F6458AC0-AC99-4A03-A628-6B59F3DE13AD}"/>
   </bookViews>
@@ -57,10 +57,10 @@
     <t>Membuat sebuah sistem informasi pendaftaran mahasiswa baru pada STAI Al-Fatah yang lebih efektif</t>
   </si>
   <si>
-    <t xml:space="preserve">Sistem Informasi Penerimaan Mahasiswa Baru ini dapat mengella proses pendaftaran, dan transaksi yang dilakukan oleh calon mahasiswa </t>
-  </si>
-  <si>
     <t>Sistem Informasi Penerimaan Mahasiswa Baru Pada STAI Al-Fatah berbasis Web</t>
+  </si>
+  <si>
+    <t>Sistem Informasi Penerimaan Mahasiswa Baru ini dapat mengelola proses pendaftaran</t>
   </si>
 </sst>
 </file>
@@ -250,7 +250,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -270,6 +270,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -284,23 +300,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -618,116 +617,104 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0478142-AA8E-4331-9EDF-9F8D72DE324C}">
   <dimension ref="B3:I45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="45" workbookViewId="0">
-      <selection activeCell="X36" sqref="X36"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="98" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="3" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.35">
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C8" s="4"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="22"/>
+      <c r="E8" s="13"/>
       <c r="F8" s="6"/>
       <c r="G8" s="3"/>
       <c r="H8" s="4"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C9" s="5"/>
-      <c r="E9" s="22"/>
+      <c r="E9" s="13"/>
       <c r="F9" s="6"/>
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="2:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="18" t="s">
+      <c r="C10" s="16"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="14"/>
+      <c r="H10" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="I10" s="18"/>
+      <c r="I10" s="16"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="14"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="14"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="14"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C14" s="6"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="14"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C15" s="7"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="21"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="14"/>
       <c r="I15" s="6"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.35">
@@ -748,12 +735,12 @@
       <c r="F18" s="6"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C20" s="4"/>
@@ -768,43 +755,43 @@
       <c r="I21" s="7"/>
     </row>
     <row r="22" spans="2:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="18"/>
-      <c r="G22" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
+      <c r="C22" s="16"/>
+      <c r="G22" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
     </row>
     <row r="26" spans="2:9" ht="31" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C27" s="8"/>
@@ -828,43 +815,43 @@
       <c r="I29" s="7"/>
     </row>
     <row r="30" spans="2:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="18"/>
-      <c r="G30" s="18" t="s">
+      <c r="C30" s="16"/>
+      <c r="G30" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="18"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C35" s="7"/>
@@ -872,29 +859,29 @@
     </row>
     <row r="36" spans="2:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C36" s="7"/>
-      <c r="G36" s="18" t="s">
+      <c r="G36" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H36" s="18"/>
-      <c r="I36" s="18"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C37" s="7"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="18"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C38" s="7"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="18"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C39" s="7"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C40" s="7"/>
@@ -910,35 +897,40 @@
       <c r="F41" s="6"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="D42" s="13" t="s">
+      <c r="D42" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="15"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="21"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="D43" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="16"/>
+      <c r="D43" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="23"/>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="D43:G45"/>
+    <mergeCell ref="G22:I26"/>
+    <mergeCell ref="G30:I34"/>
+    <mergeCell ref="G36:I39"/>
     <mergeCell ref="H10:I14"/>
     <mergeCell ref="D19:G19"/>
     <mergeCell ref="B22:C26"/>
@@ -946,11 +938,6 @@
     <mergeCell ref="D3:G5"/>
     <mergeCell ref="D7:G7"/>
     <mergeCell ref="B10:C13"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="D43:G45"/>
-    <mergeCell ref="G22:I26"/>
-    <mergeCell ref="G30:I34"/>
-    <mergeCell ref="G36:I39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
